--- a/database/industries/siman/sekord/income/quarterly/dollar_cumulative.xlsx
+++ b/database/industries/siman/sekord/income/quarterly/dollar_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekord\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekord\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534A4353-F1F5-4EEF-8CDB-8EE11B8926A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014E2023-96C7-4676-AA84-EE12A898D6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>3 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>3 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>6 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-16 (11)</t>
-  </si>
-  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -94,10 +91,13 @@
     <t>1401-04-29</t>
   </si>
   <si>
-    <t>1401-10-28 (3)</t>
+    <t>1402-02-11 (5)</t>
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-02-11 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -622,19 +622,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="4" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -648,7 +647,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,7 +663,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -680,7 +679,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -694,7 +693,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -710,7 +709,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -726,7 +725,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -740,7 +739,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -776,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -812,7 +811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -826,151 +825,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>13276</v>
+        <v>1812</v>
       </c>
       <c r="E11" s="13">
-        <v>1812</v>
+        <v>4164</v>
       </c>
       <c r="F11" s="13">
-        <v>4164</v>
+        <v>7218</v>
       </c>
       <c r="G11" s="13">
-        <v>7218</v>
+        <v>12294</v>
       </c>
       <c r="H11" s="13">
-        <v>12294</v>
+        <v>4137</v>
       </c>
       <c r="I11" s="13">
-        <v>4137</v>
+        <v>8305</v>
       </c>
       <c r="J11" s="13">
-        <v>8305</v>
+        <v>13159</v>
       </c>
       <c r="K11" s="13">
-        <v>13159</v>
+        <v>16749</v>
       </c>
       <c r="L11" s="13">
-        <v>16749</v>
+        <v>2886</v>
       </c>
       <c r="M11" s="13">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-7341</v>
+        <v>-944</v>
       </c>
       <c r="E12" s="11">
-        <v>-944</v>
+        <v>-2572</v>
       </c>
       <c r="F12" s="11">
-        <v>-2572</v>
+        <v>-4192</v>
       </c>
       <c r="G12" s="11">
-        <v>-4192</v>
+        <v>-5942</v>
       </c>
       <c r="H12" s="11">
-        <v>-5942</v>
+        <v>-1851</v>
       </c>
       <c r="I12" s="11">
-        <v>-1851</v>
+        <v>-3934</v>
       </c>
       <c r="J12" s="11">
-        <v>-3934</v>
+        <v>-6462</v>
       </c>
       <c r="K12" s="11">
-        <v>-6462</v>
+        <v>-8962</v>
       </c>
       <c r="L12" s="11">
-        <v>-8962</v>
+        <v>-1574</v>
       </c>
       <c r="M12" s="11">
-        <v>-1574</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-2553</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>5935</v>
+        <v>868</v>
       </c>
       <c r="E13" s="15">
-        <v>868</v>
+        <v>1592</v>
       </c>
       <c r="F13" s="15">
-        <v>1592</v>
+        <v>3026</v>
       </c>
       <c r="G13" s="15">
-        <v>3026</v>
+        <v>6353</v>
       </c>
       <c r="H13" s="15">
-        <v>6353</v>
+        <v>2286</v>
       </c>
       <c r="I13" s="15">
-        <v>2286</v>
+        <v>4370</v>
       </c>
       <c r="J13" s="15">
-        <v>4370</v>
+        <v>6697</v>
       </c>
       <c r="K13" s="15">
-        <v>6697</v>
+        <v>7786</v>
       </c>
       <c r="L13" s="15">
-        <v>7786</v>
+        <v>1311</v>
       </c>
       <c r="M13" s="15">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-2430</v>
+        <v>-212</v>
       </c>
       <c r="E14" s="11">
-        <v>-212</v>
+        <v>-510</v>
       </c>
       <c r="F14" s="11">
-        <v>-510</v>
+        <v>-1010</v>
       </c>
       <c r="G14" s="11">
-        <v>-1010</v>
+        <v>-2213</v>
       </c>
       <c r="H14" s="11">
-        <v>-2213</v>
+        <v>-969</v>
       </c>
       <c r="I14" s="11">
-        <v>-969</v>
+        <v>-2417</v>
       </c>
       <c r="J14" s="11">
-        <v>-2417</v>
+        <v>-3471</v>
       </c>
       <c r="K14" s="11">
-        <v>-3471</v>
+        <v>-4030</v>
       </c>
       <c r="L14" s="11">
-        <v>-4030</v>
+        <v>-388</v>
       </c>
       <c r="M14" s="11">
-        <v>-388</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-803</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -984,281 +983,281 @@
       <c r="F15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="13">
+      <c r="G15" s="13">
         <v>-82</v>
       </c>
+      <c r="H15" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="I15" s="13" t="s">
         <v>31</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="13">
+      <c r="K15" s="13">
         <v>-126</v>
       </c>
+      <c r="L15" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="M15" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11">
-        <v>205</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>31</v>
+      <c r="D16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-393</v>
       </c>
       <c r="F16" s="11">
-        <v>-393</v>
+        <v>-406</v>
       </c>
       <c r="G16" s="11">
-        <v>-406</v>
+        <v>-359</v>
       </c>
       <c r="H16" s="11">
-        <v>-359</v>
+        <v>45</v>
       </c>
       <c r="I16" s="11">
+        <v>46</v>
+      </c>
+      <c r="J16" s="11">
         <v>45</v>
       </c>
-      <c r="J16" s="11">
-        <v>46</v>
-      </c>
       <c r="K16" s="11">
-        <v>45</v>
-      </c>
-      <c r="L16" s="11">
         <v>64</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="11">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>3710</v>
+        <v>655</v>
       </c>
       <c r="E17" s="15">
-        <v>655</v>
+        <v>688</v>
       </c>
       <c r="F17" s="15">
-        <v>688</v>
+        <v>1610</v>
       </c>
       <c r="G17" s="15">
-        <v>1610</v>
+        <v>3699</v>
       </c>
       <c r="H17" s="15">
-        <v>3699</v>
+        <v>1362</v>
       </c>
       <c r="I17" s="15">
-        <v>1362</v>
+        <v>1998</v>
       </c>
       <c r="J17" s="15">
-        <v>1998</v>
+        <v>3271</v>
       </c>
       <c r="K17" s="15">
-        <v>3271</v>
+        <v>3695</v>
       </c>
       <c r="L17" s="15">
-        <v>3695</v>
+        <v>923</v>
       </c>
       <c r="M17" s="15">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-1006</v>
+        <v>-110</v>
       </c>
       <c r="E18" s="11">
-        <v>-110</v>
+        <v>-224</v>
       </c>
       <c r="F18" s="11">
-        <v>-224</v>
+        <v>-354</v>
       </c>
       <c r="G18" s="11">
-        <v>-354</v>
+        <v>-453</v>
       </c>
       <c r="H18" s="11">
-        <v>-453</v>
+        <v>-64</v>
       </c>
       <c r="I18" s="11">
-        <v>-64</v>
+        <v>-121</v>
       </c>
       <c r="J18" s="11">
-        <v>-121</v>
+        <v>-228</v>
       </c>
       <c r="K18" s="11">
-        <v>-228</v>
+        <v>-287</v>
       </c>
       <c r="L18" s="11">
-        <v>-287</v>
+        <v>-48</v>
       </c>
       <c r="M18" s="11">
-        <v>-48</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="E19" s="13">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="F19" s="13">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G19" s="13">
-        <v>24</v>
-      </c>
-      <c r="H19" s="13">
         <v>91</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>31</v>
+      <c r="H19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="13">
+        <v>151</v>
       </c>
       <c r="J19" s="13">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="K19" s="13">
-        <v>250</v>
+        <v>456</v>
       </c>
       <c r="L19" s="13">
-        <v>456</v>
+        <v>274</v>
       </c>
       <c r="M19" s="13">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>2838</v>
+        <v>549</v>
       </c>
       <c r="E20" s="17">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="F20" s="17">
-        <v>523</v>
+        <v>1279</v>
       </c>
       <c r="G20" s="17">
-        <v>1279</v>
+        <v>3337</v>
       </c>
       <c r="H20" s="17">
-        <v>3337</v>
+        <v>1298</v>
       </c>
       <c r="I20" s="17">
-        <v>1298</v>
+        <v>2029</v>
       </c>
       <c r="J20" s="17">
-        <v>2029</v>
+        <v>3293</v>
       </c>
       <c r="K20" s="17">
-        <v>3293</v>
+        <v>3864</v>
       </c>
       <c r="L20" s="17">
-        <v>3864</v>
+        <v>1148</v>
       </c>
       <c r="M20" s="17">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="13">
-        <v>-471</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>31</v>
+      <c r="D21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-86</v>
       </c>
       <c r="F21" s="13">
-        <v>-86</v>
+        <v>-89</v>
       </c>
       <c r="G21" s="13">
-        <v>-89</v>
+        <v>-503</v>
       </c>
       <c r="H21" s="13">
-        <v>-503</v>
+        <v>-176</v>
       </c>
       <c r="I21" s="13">
-        <v>-176</v>
+        <v>-354</v>
       </c>
       <c r="J21" s="13">
-        <v>-354</v>
+        <v>-565</v>
       </c>
       <c r="K21" s="13">
-        <v>-565</v>
+        <v>-687</v>
       </c>
       <c r="L21" s="13">
-        <v>-687</v>
+        <v>-241</v>
       </c>
       <c r="M21" s="13">
-        <v>-241</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-404</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>2367</v>
+        <v>549</v>
       </c>
       <c r="E22" s="17">
-        <v>549</v>
+        <v>437</v>
       </c>
       <c r="F22" s="17">
-        <v>437</v>
+        <v>1191</v>
       </c>
       <c r="G22" s="17">
-        <v>1191</v>
+        <v>2834</v>
       </c>
       <c r="H22" s="17">
-        <v>2834</v>
+        <v>1122</v>
       </c>
       <c r="I22" s="17">
-        <v>1122</v>
+        <v>1675</v>
       </c>
       <c r="J22" s="17">
-        <v>1675</v>
+        <v>2728</v>
       </c>
       <c r="K22" s="17">
-        <v>2728</v>
+        <v>3177</v>
       </c>
       <c r="L22" s="17">
-        <v>3177</v>
+        <v>907</v>
       </c>
       <c r="M22" s="17">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1284,8 +1283,8 @@
       <c r="J23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>31</v>
+      <c r="K23" s="13">
+        <v>1</v>
       </c>
       <c r="L23" s="13" t="s">
         <v>31</v>
@@ -1294,43 +1293,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>2367</v>
+        <v>549</v>
       </c>
       <c r="E24" s="17">
-        <v>549</v>
+        <v>437</v>
       </c>
       <c r="F24" s="17">
-        <v>437</v>
+        <v>1191</v>
       </c>
       <c r="G24" s="17">
-        <v>1191</v>
+        <v>2834</v>
       </c>
       <c r="H24" s="17">
-        <v>2834</v>
+        <v>1122</v>
       </c>
       <c r="I24" s="17">
-        <v>1122</v>
+        <v>1675</v>
       </c>
       <c r="J24" s="17">
-        <v>1675</v>
+        <v>2728</v>
       </c>
       <c r="K24" s="17">
-        <v>2728</v>
+        <v>3178</v>
       </c>
       <c r="L24" s="17">
-        <v>3177</v>
+        <v>907</v>
       </c>
       <c r="M24" s="17">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1366,43 +1365,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>13702</v>
+        <v>8095</v>
       </c>
       <c r="E26" s="11">
-        <v>8095</v>
+        <v>8526</v>
       </c>
       <c r="F26" s="11">
-        <v>8526</v>
+        <v>8802</v>
       </c>
       <c r="G26" s="11">
-        <v>8802</v>
+        <v>8703</v>
       </c>
       <c r="H26" s="11">
-        <v>8703</v>
+        <v>7727</v>
       </c>
       <c r="I26" s="11">
-        <v>7727</v>
+        <v>7866</v>
       </c>
       <c r="J26" s="11">
-        <v>7866</v>
+        <v>7738</v>
       </c>
       <c r="K26" s="11">
-        <v>7738</v>
+        <v>7570</v>
       </c>
       <c r="L26" s="11">
-        <v>7570</v>
+        <v>6332</v>
       </c>
       <c r="M26" s="11">
-        <v>6332</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5502</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -1438,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
